--- a/Human_Evaluation/Data/Mode2/Analysis/mode_2_release_1_manual_test_evaluation.xlsx
+++ b/Human_Evaluation/Data/Mode2/Analysis/mode_2_release_1_manual_test_evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkang/Documents/research/nlp_followupqg/Human_Evaluation/Data/Mode2/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7E3C66-E29E-914A-9D82-CF344B5BEB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E7E0D9-E6BB-E947-9735-830E5C5C9C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18020" yWindow="-28300" windowWidth="25600" windowHeight="28300" xr2:uid="{AA4F8B98-2AA3-044B-A27F-D0D21236ED40}"/>
+    <workbookView xWindow="-7580" yWindow="-28300" windowWidth="25600" windowHeight="28300" xr2:uid="{AA4F8B98-2AA3-044B-A27F-D0D21236ED40}"/>
   </bookViews>
   <sheets>
     <sheet name="david_release_1" sheetId="1" r:id="rId1"/>
@@ -583,15 +583,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520E8B59-1CE5-2547-BA4B-1905AC938F6D}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -614,7 +614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -636,8 +636,9 @@
       <c r="G2" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -659,8 +660,9 @@
       <c r="G3" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -682,8 +684,9 @@
       <c r="G4" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -705,8 +708,9 @@
       <c r="G5" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -728,8 +732,9 @@
       <c r="G6" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -751,8 +756,9 @@
       <c r="G7" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -774,8 +780,9 @@
       <c r="G8" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -797,8 +804,9 @@
       <c r="G9" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -820,8 +828,9 @@
       <c r="G10" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
@@ -843,8 +852,9 @@
       <c r="G11" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -866,8 +876,9 @@
       <c r="G12" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
@@ -889,8 +900,9 @@
       <c r="G13" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -912,8 +924,9 @@
       <c r="G14" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -935,8 +948,9 @@
       <c r="G15" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -947,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7">
         <v>1</v>
@@ -956,10 +970,11 @@
         <v>1</v>
       </c>
       <c r="G16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
@@ -970,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7">
         <v>3</v>
@@ -981,8 +996,9 @@
       <c r="G17" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
@@ -1004,8 +1020,9 @@
       <c r="G18" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
@@ -1027,8 +1044,9 @@
       <c r="G19" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
@@ -1050,8 +1068,9 @@
       <c r="G20" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>31</v>
       </c>
@@ -1073,8 +1092,9 @@
       <c r="G21" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
@@ -1096,8 +1116,9 @@
       <c r="G22" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>35</v>
       </c>
@@ -1119,8 +1140,9 @@
       <c r="G23" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>35</v>
       </c>
@@ -1142,8 +1164,9 @@
       <c r="G24" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>35</v>
       </c>
@@ -1165,6 +1188,127 @@
       <c r="G25" s="6">
         <v>3</v>
       </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1766,7 +1910,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E25"/>
+      <selection activeCell="C2" sqref="C2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
